--- a/TeplosilaWeb/Content/properties/gtrv3china.xlsx
+++ b/TeplosilaWeb/Content/properties/gtrv3china.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Документы\ТЗ программа подбора TRV, RDT\ТЗ клапаны TRV\04.08.2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Документы\ТЗ программа подбора TRV, RDT\ТЗ клапаны TRV\19.10.2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -256,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -285,15 +285,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -303,9 +294,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -323,6 +311,13 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -612,27 +607,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" style="20" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" style="20" customWidth="1"/>
+    <col min="3" max="14" width="9.140625" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
     </row>
     <row r="2" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -641,20 +637,20 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="15"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="12"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -780,29 +776,29 @@
       <c r="M5" s="1">
         <v>240</v>
       </c>
-      <c r="N5" s="1">
-        <v>165</v>
+      <c r="N5" s="21">
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="22"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="18"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
@@ -898,7 +894,7 @@
       <c r="A10" s="8">
         <v>8</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="5">
@@ -925,34 +921,34 @@
       <c r="N10" s="5"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="A11" s="8">
         <v>9</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="5">
         <v>360</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5">
         <v>360</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="5">
         <v>345</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="5">
         <v>350</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="5">
         <v>400</v>
       </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
@@ -1036,7 +1032,7 @@
       <c r="A15" s="8">
         <v>13</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="5"/>
@@ -1059,30 +1055,30 @@
       <c r="N15" s="5"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+      <c r="A16" s="8">
         <v>14</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5">
         <v>445</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="5">
         <v>445</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K16" s="5">
         <v>480</v>
       </c>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
@@ -1112,7 +1108,7 @@
       <c r="A18" s="8">
         <v>16</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="5"/>
@@ -1133,28 +1129,28 @@
       <c r="N18" s="5"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
+      <c r="A19" s="8">
         <v>17</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5">
         <v>510</v>
       </c>
-      <c r="M19" s="12">
+      <c r="M19" s="5">
         <v>540</v>
       </c>
-      <c r="N19" s="12"/>
+      <c r="N19" s="5"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
@@ -1179,24 +1175,24 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
+      <c r="A21" s="8">
         <v>19</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5">
         <v>555</v>
       </c>
     </row>
@@ -1316,21 +1312,21 @@
       <c r="A26" s="8">
         <v>24</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="19"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="15"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
@@ -1426,7 +1422,7 @@
       <c r="A30" s="8">
         <v>28</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C30" s="5">
@@ -1453,34 +1449,34 @@
       <c r="N30" s="5"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="11">
+      <c r="A31" s="8">
         <v>29</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="5">
         <v>5.9</v>
       </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12">
+      <c r="D31" s="5"/>
+      <c r="E31" s="5">
         <v>7.2</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="5">
         <v>8.4</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G31" s="5">
         <v>10.5</v>
       </c>
-      <c r="H31" s="12">
+      <c r="H31" s="5">
         <v>14.3</v>
       </c>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
@@ -1564,7 +1560,7 @@
       <c r="A35" s="8">
         <v>33</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C35" s="5"/>
@@ -1587,30 +1583,30 @@
       <c r="N35" s="5"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="11">
+      <c r="A36" s="8">
         <v>34</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12">
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5">
         <v>21</v>
       </c>
-      <c r="J36" s="12">
+      <c r="J36" s="5">
         <v>25</v>
       </c>
-      <c r="K36" s="12">
+      <c r="K36" s="5">
         <v>31.3</v>
       </c>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
@@ -1640,7 +1636,7 @@
       <c r="A38" s="8">
         <v>36</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C38" s="5"/>
@@ -1661,28 +1657,28 @@
       <c r="N38" s="5"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="11">
+      <c r="A39" s="8">
         <v>37</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12">
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5">
         <v>39.9</v>
       </c>
-      <c r="M39" s="12">
+      <c r="M39" s="5">
         <v>56.8</v>
       </c>
-      <c r="N39" s="12"/>
+      <c r="N39" s="5"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
@@ -1707,24 +1703,24 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="11">
+      <c r="A41" s="8">
         <v>39</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12">
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5">
         <v>66</v>
       </c>
     </row>

--- a/TeplosilaWeb/Content/properties/gtrv3china.xlsx
+++ b/TeplosilaWeb/Content/properties/gtrv3china.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Документы\ТЗ программа подбора TRV, RDT\ТЗ клапаны TRV\19.10.2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Документы\ТЗ программа подбора TRV, RDT\ТЗ клапаны TRV\10.04.2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
   <si>
     <t>Наименование параметров,
 единицы измерения</t>
@@ -109,6 +109,18 @@
   </si>
   <si>
     <t>TW5000-XD220-S.14</t>
+  </si>
+  <si>
+    <t>TSL-1600-25-2AR-230-IP67</t>
+  </si>
+  <si>
+    <t>TSL-1600-25-2AR-24-IP67</t>
+  </si>
+  <si>
+    <t>TSL-2200-40-2AR-230-IP67</t>
+  </si>
+  <si>
+    <t>TSL-2200-40-2AR-24-IP67</t>
   </si>
 </sst>
 </file>
@@ -256,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -285,6 +297,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -294,6 +307,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -312,11 +328,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -599,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:N1"/>
@@ -607,28 +625,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="20" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" style="20" customWidth="1"/>
-    <col min="3" max="14" width="9.140625" style="20"/>
+    <col min="1" max="1" width="6.85546875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" style="10" customWidth="1"/>
+    <col min="3" max="14" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
     </row>
     <row r="2" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -637,20 +655,20 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -776,7 +794,7 @@
       <c r="M5" s="1">
         <v>240</v>
       </c>
-      <c r="N5" s="21">
+      <c r="N5" s="1">
         <v>327</v>
       </c>
     </row>
@@ -784,21 +802,21 @@
       <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="20"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
@@ -894,8 +912,8 @@
       <c r="A10" s="8">
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>21</v>
+      <c r="B10" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="C10" s="5">
         <v>360</v>
@@ -924,8 +942,8 @@
       <c r="A11" s="8">
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>22</v>
+      <c r="B11" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="C11" s="5">
         <v>360</v>
@@ -954,112 +972,128 @@
       <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="5"/>
+      <c r="B12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="5">
+        <v>360</v>
+      </c>
       <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5">
-        <v>445</v>
-      </c>
-      <c r="J12" s="5">
-        <v>445</v>
-      </c>
-      <c r="K12" s="5">
-        <v>480</v>
-      </c>
+      <c r="E12" s="5">
+        <v>360</v>
+      </c>
+      <c r="F12" s="5">
+        <v>345</v>
+      </c>
+      <c r="G12" s="5">
+        <v>350</v>
+      </c>
+      <c r="H12" s="5">
+        <v>400</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="21">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5">
-        <v>445</v>
-      </c>
-      <c r="J13" s="5">
-        <v>445</v>
-      </c>
-      <c r="K13" s="5">
-        <v>480</v>
-      </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
+      <c r="B13" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="23">
+        <v>360</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23">
+        <v>360</v>
+      </c>
+      <c r="F13" s="23">
+        <v>345</v>
+      </c>
+      <c r="G13" s="23">
+        <v>350</v>
+      </c>
+      <c r="H13" s="23">
+        <v>400</v>
+      </c>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>12</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="C14" s="5">
+        <v>360</v>
+      </c>
       <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5">
-        <v>445</v>
-      </c>
-      <c r="J14" s="5">
-        <v>445</v>
-      </c>
-      <c r="K14" s="5">
-        <v>480</v>
-      </c>
+      <c r="E14" s="5">
+        <v>360</v>
+      </c>
+      <c r="F14" s="5">
+        <v>345</v>
+      </c>
+      <c r="G14" s="5">
+        <v>350</v>
+      </c>
+      <c r="H14" s="5">
+        <v>400</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="21">
         <v>13</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5">
-        <v>445</v>
-      </c>
-      <c r="J15" s="5">
-        <v>445</v>
-      </c>
-      <c r="K15" s="5">
-        <v>480</v>
-      </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
+      <c r="B15" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="23">
+        <v>360</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23">
+        <v>360</v>
+      </c>
+      <c r="F15" s="23">
+        <v>345</v>
+      </c>
+      <c r="G15" s="23">
+        <v>350</v>
+      </c>
+      <c r="H15" s="23">
+        <v>400</v>
+      </c>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>14</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>24</v>
+      <c r="B16" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -1084,8 +1118,8 @@
       <c r="A17" s="8">
         <v>15</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>12</v>
+      <c r="B17" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1093,15 +1127,17 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5">
-        <v>510</v>
-      </c>
-      <c r="M17" s="5">
-        <v>540</v>
-      </c>
+      <c r="I17" s="5">
+        <v>445</v>
+      </c>
+      <c r="J17" s="5">
+        <v>445</v>
+      </c>
+      <c r="K17" s="5">
+        <v>480</v>
+      </c>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
       <c r="N17" s="5"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -1109,7 +1145,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -1117,23 +1153,25 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5">
-        <v>510</v>
-      </c>
-      <c r="M18" s="5">
-        <v>540</v>
-      </c>
+      <c r="I18" s="5">
+        <v>445</v>
+      </c>
+      <c r="J18" s="5">
+        <v>445</v>
+      </c>
+      <c r="K18" s="5">
+        <v>480</v>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
       <c r="N18" s="5"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>17</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>26</v>
+      <c r="B19" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -1141,23 +1179,25 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5">
-        <v>510</v>
-      </c>
-      <c r="M19" s="5">
-        <v>540</v>
-      </c>
+      <c r="I19" s="5">
+        <v>445</v>
+      </c>
+      <c r="J19" s="5">
+        <v>445</v>
+      </c>
+      <c r="K19" s="5">
+        <v>480</v>
+      </c>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
       <c r="N19" s="5"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>18</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>17</v>
+      <c r="B20" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1165,21 +1205,25 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
+      <c r="I20" s="5">
+        <v>445</v>
+      </c>
+      <c r="J20" s="5">
+        <v>445</v>
+      </c>
+      <c r="K20" s="5">
+        <v>480</v>
+      </c>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
-      <c r="N20" s="5">
-        <v>565</v>
-      </c>
+      <c r="N20" s="5"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>19</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -1187,107 +1231,103 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
+      <c r="I21" s="5">
+        <v>445</v>
+      </c>
+      <c r="J21" s="5">
+        <v>445</v>
+      </c>
+      <c r="K21" s="5">
+        <v>480</v>
+      </c>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
-      <c r="N21" s="5">
-        <v>555</v>
-      </c>
+      <c r="N21" s="5"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+      <c r="A22" s="21">
         <v>20</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="5">
-        <v>360</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5">
-        <v>360</v>
-      </c>
-      <c r="F22" s="5">
-        <v>345</v>
-      </c>
-      <c r="G22" s="5">
-        <v>350</v>
-      </c>
-      <c r="H22" s="5">
-        <v>400</v>
-      </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
+      <c r="B22" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23">
+        <v>445</v>
+      </c>
+      <c r="J22" s="23">
+        <v>445</v>
+      </c>
+      <c r="K22" s="23">
+        <v>480</v>
+      </c>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>21</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="5">
-        <v>360</v>
-      </c>
+      <c r="B23" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="5">
-        <v>360</v>
-      </c>
-      <c r="F23" s="5">
-        <v>345</v>
-      </c>
-      <c r="G23" s="5">
-        <v>350</v>
-      </c>
-      <c r="H23" s="5">
-        <v>400</v>
-      </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5">
+        <v>445</v>
+      </c>
+      <c r="J23" s="5">
+        <v>445</v>
+      </c>
+      <c r="K23" s="5">
+        <v>480</v>
+      </c>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
+      <c r="A24" s="21">
         <v>22</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5">
+      <c r="B24" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23">
         <v>445</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="23">
         <v>445</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24" s="23">
         <v>480</v>
       </c>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>23</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>16</v>
+      <c r="B25" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -1295,165 +1335,135 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="5">
-        <v>445</v>
-      </c>
-      <c r="J25" s="5">
-        <v>445</v>
-      </c>
-      <c r="K25" s="5">
-        <v>480</v>
-      </c>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5">
+        <v>510</v>
+      </c>
+      <c r="M25" s="5">
+        <v>540</v>
+      </c>
       <c r="N25" s="5"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>24</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="15"/>
+      <c r="B26" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5">
+        <v>510</v>
+      </c>
+      <c r="M26" s="5">
+        <v>540</v>
+      </c>
+      <c r="N26" s="5"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>25</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="5">
-        <v>5.9</v>
-      </c>
+      <c r="B27" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="5">
-        <v>7.2</v>
-      </c>
-      <c r="F27" s="5">
-        <v>8.4</v>
-      </c>
-      <c r="G27" s="5">
-        <v>10.5</v>
-      </c>
-      <c r="H27" s="5">
-        <v>14.3</v>
-      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
+      <c r="L27" s="5">
+        <v>510</v>
+      </c>
+      <c r="M27" s="5">
+        <v>540</v>
+      </c>
       <c r="N27" s="5"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>26</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="5">
-        <v>5.9</v>
-      </c>
+      <c r="B28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="5">
-        <v>7.2</v>
-      </c>
-      <c r="F28" s="5">
-        <v>8.4</v>
-      </c>
-      <c r="G28" s="5">
-        <v>10.5</v>
-      </c>
-      <c r="H28" s="5">
-        <v>14.3</v>
-      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
+      <c r="N28" s="5">
+        <v>565</v>
+      </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>27</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="5">
-        <v>5.9</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="5">
-        <v>7.2</v>
-      </c>
-      <c r="F29" s="5">
-        <v>8.4</v>
-      </c>
-      <c r="G29" s="5">
-        <v>10.5</v>
-      </c>
-      <c r="H29" s="5">
-        <v>14.3</v>
-      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
+      <c r="N29" s="5">
+        <v>555</v>
+      </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>28</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="5">
-        <v>5.9</v>
-      </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5">
-        <v>7.2</v>
-      </c>
-      <c r="F30" s="5">
-        <v>8.4</v>
-      </c>
-      <c r="G30" s="5">
-        <v>10.5</v>
-      </c>
-      <c r="H30" s="5">
-        <v>14.3</v>
-      </c>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
+      <c r="B30" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="17"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>29</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>22</v>
+      <c r="B31" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="C31" s="5">
         <v>5.9</v>
@@ -1483,23 +1493,27 @@
         <v>30</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="C32" s="5">
+        <v>5.9</v>
+      </c>
       <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5">
-        <v>21</v>
-      </c>
-      <c r="J32" s="5">
-        <v>25</v>
-      </c>
-      <c r="K32" s="5">
-        <v>31.3</v>
-      </c>
+      <c r="E32" s="5">
+        <v>7.2</v>
+      </c>
+      <c r="F32" s="5">
+        <v>8.4</v>
+      </c>
+      <c r="G32" s="5">
+        <v>10.5</v>
+      </c>
+      <c r="H32" s="5">
+        <v>14.3</v>
+      </c>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
@@ -1508,24 +1522,28 @@
       <c r="A33" s="8">
         <v>31</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="5"/>
+      <c r="B33" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="5">
+        <v>5.9</v>
+      </c>
       <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5">
-        <v>21</v>
-      </c>
-      <c r="J33" s="5">
-        <v>25</v>
-      </c>
-      <c r="K33" s="5">
-        <v>31.3</v>
-      </c>
+      <c r="E33" s="5">
+        <v>7.2</v>
+      </c>
+      <c r="F33" s="5">
+        <v>8.4</v>
+      </c>
+      <c r="G33" s="5">
+        <v>10.5</v>
+      </c>
+      <c r="H33" s="5">
+        <v>14.3</v>
+      </c>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
@@ -1534,24 +1552,28 @@
       <c r="A34" s="8">
         <v>32</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="5"/>
+      <c r="B34" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="5">
+        <v>5.9</v>
+      </c>
       <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5">
-        <v>21</v>
-      </c>
-      <c r="J34" s="5">
-        <v>25</v>
-      </c>
-      <c r="K34" s="5">
-        <v>31.3</v>
-      </c>
+      <c r="E34" s="5">
+        <v>7.2</v>
+      </c>
+      <c r="F34" s="5">
+        <v>8.4</v>
+      </c>
+      <c r="G34" s="5">
+        <v>10.5</v>
+      </c>
+      <c r="H34" s="5">
+        <v>14.3</v>
+      </c>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
@@ -1560,24 +1582,28 @@
       <c r="A35" s="8">
         <v>33</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" s="5"/>
+      <c r="B35" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="5">
+        <v>5.9</v>
+      </c>
       <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5">
-        <v>21</v>
-      </c>
-      <c r="J35" s="5">
-        <v>25</v>
-      </c>
-      <c r="K35" s="5">
-        <v>31.3</v>
-      </c>
+      <c r="E35" s="5">
+        <v>7.2</v>
+      </c>
+      <c r="F35" s="5">
+        <v>8.4</v>
+      </c>
+      <c r="G35" s="5">
+        <v>10.5</v>
+      </c>
+      <c r="H35" s="5">
+        <v>14.3</v>
+      </c>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
@@ -1587,105 +1613,127 @@
         <v>34</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="C36" s="5">
+        <v>5.9</v>
+      </c>
       <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5">
-        <v>21</v>
-      </c>
-      <c r="J36" s="5">
-        <v>25</v>
-      </c>
-      <c r="K36" s="5">
-        <v>31.3</v>
-      </c>
+      <c r="E36" s="5">
+        <v>7.2</v>
+      </c>
+      <c r="F36" s="5">
+        <v>8.4</v>
+      </c>
+      <c r="G36" s="5">
+        <v>10.5</v>
+      </c>
+      <c r="H36" s="5">
+        <v>14.3</v>
+      </c>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
+      <c r="A37" s="21">
         <v>35</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5">
-        <v>39.9</v>
-      </c>
-      <c r="M37" s="5">
-        <v>56.8</v>
-      </c>
-      <c r="N37" s="5"/>
+      <c r="B37" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="23">
+        <v>5.9</v>
+      </c>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23">
+        <v>7.2</v>
+      </c>
+      <c r="F37" s="23">
+        <v>8.4</v>
+      </c>
+      <c r="G37" s="23">
+        <v>10.5</v>
+      </c>
+      <c r="H37" s="23">
+        <v>14.3</v>
+      </c>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>36</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="C38" s="5">
+        <v>5.9</v>
+      </c>
       <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
+      <c r="E38" s="5">
+        <v>7.2</v>
+      </c>
+      <c r="F38" s="5">
+        <v>8.4</v>
+      </c>
+      <c r="G38" s="5">
+        <v>10.5</v>
+      </c>
+      <c r="H38" s="5">
+        <v>14.3</v>
+      </c>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
-      <c r="L38" s="5">
-        <v>39.9</v>
-      </c>
-      <c r="M38" s="5">
-        <v>56.8</v>
-      </c>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
       <c r="N38" s="5"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="8">
+      <c r="A39" s="21">
         <v>37</v>
       </c>
-      <c r="B39" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5">
-        <v>39.9</v>
-      </c>
-      <c r="M39" s="5">
-        <v>56.8</v>
-      </c>
-      <c r="N39" s="5"/>
+      <c r="B39" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="23">
+        <v>5.9</v>
+      </c>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23">
+        <v>7.2</v>
+      </c>
+      <c r="F39" s="23">
+        <v>8.4</v>
+      </c>
+      <c r="G39" s="23">
+        <v>10.5</v>
+      </c>
+      <c r="H39" s="23">
+        <v>14.3</v>
+      </c>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="23"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>38</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>17</v>
+      <c r="B40" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -1693,21 +1741,25 @@
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
+      <c r="I40" s="5">
+        <v>21</v>
+      </c>
+      <c r="J40" s="5">
+        <v>25</v>
+      </c>
+      <c r="K40" s="5">
+        <v>31.3</v>
+      </c>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
-      <c r="N40" s="5">
-        <v>68.400000000000006</v>
-      </c>
+      <c r="N40" s="5"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>39</v>
       </c>
-      <c r="B41" s="9" t="s">
-        <v>27</v>
+      <c r="B41" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -1715,41 +1767,41 @@
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
+      <c r="I41" s="5">
+        <v>21</v>
+      </c>
+      <c r="J41" s="5">
+        <v>25</v>
+      </c>
+      <c r="K41" s="5">
+        <v>31.3</v>
+      </c>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
-      <c r="N41" s="5">
-        <v>66</v>
-      </c>
+      <c r="N41" s="5"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>40</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" s="5">
-        <v>5.9</v>
-      </c>
+      <c r="B42" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="5"/>
       <c r="D42" s="5"/>
-      <c r="E42" s="5">
-        <v>7.2</v>
-      </c>
-      <c r="F42" s="5">
-        <v>8.4</v>
-      </c>
-      <c r="G42" s="5">
-        <v>10.5</v>
-      </c>
-      <c r="H42" s="5">
-        <v>14.3</v>
-      </c>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5">
+        <v>21</v>
+      </c>
+      <c r="J42" s="5">
+        <v>25</v>
+      </c>
+      <c r="K42" s="5">
+        <v>31.3</v>
+      </c>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
@@ -1759,27 +1811,23 @@
         <v>41</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43" s="5">
-        <v>5.9</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C43" s="5"/>
       <c r="D43" s="5"/>
-      <c r="E43" s="5">
-        <v>7.2</v>
-      </c>
-      <c r="F43" s="5">
-        <v>8.4</v>
-      </c>
-      <c r="G43" s="5">
-        <v>10.5</v>
-      </c>
-      <c r="H43" s="5">
-        <v>14.3</v>
-      </c>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5">
+        <v>21</v>
+      </c>
+      <c r="J43" s="5">
+        <v>25</v>
+      </c>
+      <c r="K43" s="5">
+        <v>31.3</v>
+      </c>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
@@ -1789,7 +1837,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -1814,8 +1862,8 @@
       <c r="A45" s="8">
         <v>43</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>16</v>
+      <c r="B45" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -1836,11 +1884,205 @@
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
     </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="21">
+        <v>44</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23">
+        <v>21</v>
+      </c>
+      <c r="J46" s="23">
+        <v>25</v>
+      </c>
+      <c r="K46" s="23">
+        <v>31.3</v>
+      </c>
+      <c r="L46" s="23"/>
+      <c r="M46" s="23"/>
+      <c r="N46" s="23"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
+        <v>45</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5">
+        <v>21</v>
+      </c>
+      <c r="J47" s="5">
+        <v>25</v>
+      </c>
+      <c r="K47" s="5">
+        <v>31.3</v>
+      </c>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="21">
+        <v>46</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23">
+        <v>21</v>
+      </c>
+      <c r="J48" s="23">
+        <v>25</v>
+      </c>
+      <c r="K48" s="23">
+        <v>31.3</v>
+      </c>
+      <c r="L48" s="23"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="23"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="8">
+        <v>47</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5">
+        <v>39.9</v>
+      </c>
+      <c r="M49" s="5">
+        <v>56.8</v>
+      </c>
+      <c r="N49" s="5"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="8">
+        <v>48</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5">
+        <v>39.9</v>
+      </c>
+      <c r="M50" s="5">
+        <v>56.8</v>
+      </c>
+      <c r="N50" s="5"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="8">
+        <v>49</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5">
+        <v>39.9</v>
+      </c>
+      <c r="M51" s="5">
+        <v>56.8</v>
+      </c>
+      <c r="N51" s="5"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="8">
+        <v>50</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5">
+        <v>68.400000000000006</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="8">
+        <v>51</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C2:N2"/>
     <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B26:N26"/>
+    <mergeCell ref="B30:N30"/>
     <mergeCell ref="B6:N6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
